--- a/data/pca/factorExposure/factorExposure_2009-01-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01700239095890255</v>
+        <v>-0.01581605832229898</v>
       </c>
       <c r="C2">
-        <v>0.007427509412517522</v>
+        <v>0.009971935434528583</v>
       </c>
       <c r="D2">
-        <v>-0.01668915690510379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01400210563356582</v>
+      </c>
+      <c r="E2">
+        <v>-0.002554226242897186</v>
+      </c>
+      <c r="F2">
+        <v>0.01255992686382723</v>
+      </c>
+      <c r="G2">
+        <v>0.01646685990109013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08208628111791826</v>
+        <v>-0.08418277356607809</v>
       </c>
       <c r="C4">
-        <v>0.08332147226876195</v>
+        <v>0.08854688363820293</v>
       </c>
       <c r="D4">
-        <v>0.05929481542839127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0578729087902415</v>
+      </c>
+      <c r="E4">
+        <v>0.02940696860811429</v>
+      </c>
+      <c r="F4">
+        <v>0.0329235030718559</v>
+      </c>
+      <c r="G4">
+        <v>0.02862561044202784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003300553528297018</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001849790005160716</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.002566321963666657</v>
+      </c>
+      <c r="E5">
+        <v>-0.00244964904497564</v>
+      </c>
+      <c r="F5">
+        <v>-0.003322004863825546</v>
+      </c>
+      <c r="G5">
+        <v>-0.00155800383115148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1681478033478525</v>
+        <v>-0.1699719394488731</v>
       </c>
       <c r="C6">
-        <v>-0.02060224283943462</v>
+        <v>-0.01198216079531436</v>
       </c>
       <c r="D6">
-        <v>0.05163971870180353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05108223778364077</v>
+      </c>
+      <c r="E6">
+        <v>0.03277653996911004</v>
+      </c>
+      <c r="F6">
+        <v>-0.06306846731653878</v>
+      </c>
+      <c r="G6">
+        <v>0.002354167614622904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05557982080177507</v>
+        <v>-0.05940136474161319</v>
       </c>
       <c r="C7">
-        <v>0.06066641633079792</v>
+        <v>0.06467829707924899</v>
       </c>
       <c r="D7">
-        <v>0.0387021021393354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04142252592160653</v>
+      </c>
+      <c r="E7">
+        <v>0.06450065031799848</v>
+      </c>
+      <c r="F7">
+        <v>0.06193927437072581</v>
+      </c>
+      <c r="G7">
+        <v>0.04079483433678459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05495057405889816</v>
+        <v>-0.05132495475249871</v>
       </c>
       <c r="C8">
-        <v>0.05014590794487208</v>
+        <v>0.05109014659611393</v>
       </c>
       <c r="D8">
-        <v>-0.01154149976076804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01329650345901356</v>
+      </c>
+      <c r="E8">
+        <v>-0.009814390999856176</v>
+      </c>
+      <c r="F8">
+        <v>0.04069285332342158</v>
+      </c>
+      <c r="G8">
+        <v>-0.001039394780044073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06073737917296861</v>
+        <v>-0.06412791615820156</v>
       </c>
       <c r="C9">
-        <v>0.08887296466623019</v>
+        <v>0.09235412267858766</v>
       </c>
       <c r="D9">
-        <v>0.08714941652419593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08246981923499278</v>
+      </c>
+      <c r="E9">
+        <v>0.040408877086782</v>
+      </c>
+      <c r="F9">
+        <v>0.05650366987884391</v>
+      </c>
+      <c r="G9">
+        <v>0.00236892124888722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1089178699240943</v>
+        <v>-0.1013181741945832</v>
       </c>
       <c r="C10">
-        <v>-0.1430376381387443</v>
+        <v>-0.1343650577524005</v>
       </c>
       <c r="D10">
-        <v>-0.1085521899355479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09630117288544843</v>
+      </c>
+      <c r="E10">
+        <v>-0.0344335062225203</v>
+      </c>
+      <c r="F10">
+        <v>0.04807707357326615</v>
+      </c>
+      <c r="G10">
+        <v>-0.02653656327815659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07971498112013709</v>
+        <v>-0.07741227792474809</v>
       </c>
       <c r="C11">
-        <v>0.1252885027275012</v>
+        <v>0.1263317681634442</v>
       </c>
       <c r="D11">
-        <v>0.06308072774119719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05418692154654004</v>
+      </c>
+      <c r="E11">
+        <v>0.004596424892032465</v>
+      </c>
+      <c r="F11">
+        <v>0.0794007705215303</v>
+      </c>
+      <c r="G11">
+        <v>-0.002870014860926833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08275584982225552</v>
+        <v>-0.07837669146475497</v>
       </c>
       <c r="C12">
-        <v>0.1491911935385111</v>
+        <v>0.1502912845546503</v>
       </c>
       <c r="D12">
-        <v>0.06731659712850055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06078723368093245</v>
+      </c>
+      <c r="E12">
+        <v>0.009405921885000999</v>
+      </c>
+      <c r="F12">
+        <v>0.08298443854726886</v>
+      </c>
+      <c r="G12">
+        <v>0.001829205976392834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04298246835568564</v>
+        <v>-0.04339521234171655</v>
       </c>
       <c r="C13">
-        <v>0.06817284542070559</v>
+        <v>0.07461194767754607</v>
       </c>
       <c r="D13">
-        <v>0.02705884224150713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02682277742009762</v>
+      </c>
+      <c r="E13">
+        <v>0.0240176914964092</v>
+      </c>
+      <c r="F13">
+        <v>0.07367300555475438</v>
+      </c>
+      <c r="G13">
+        <v>0.004596674945288108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02039078820313634</v>
+        <v>-0.02325445459602861</v>
       </c>
       <c r="C14">
-        <v>0.04460971452866953</v>
+        <v>0.04488489384089628</v>
       </c>
       <c r="D14">
-        <v>0.05192930611292296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04945333020520112</v>
+      </c>
+      <c r="E14">
+        <v>0.005241499826986644</v>
+      </c>
+      <c r="F14">
+        <v>0.08051531786515385</v>
+      </c>
+      <c r="G14">
+        <v>-0.01224289767970101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03152978157903486</v>
+        <v>-0.03367269734580067</v>
       </c>
       <c r="C15">
-        <v>0.05593415499783629</v>
+        <v>0.05574134431940173</v>
       </c>
       <c r="D15">
-        <v>0.04423488066446996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03858246793930835</v>
+      </c>
+      <c r="E15">
+        <v>0.02826679925380507</v>
+      </c>
+      <c r="F15">
+        <v>0.02770305723428367</v>
+      </c>
+      <c r="G15">
+        <v>-0.01187248090823277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0576975281932655</v>
+        <v>-0.05760102435880476</v>
       </c>
       <c r="C16">
-        <v>0.144969129534631</v>
+        <v>0.1457014681108543</v>
       </c>
       <c r="D16">
-        <v>0.0764962773728273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06947001742859232</v>
+      </c>
+      <c r="E16">
+        <v>-0.01322821497356735</v>
+      </c>
+      <c r="F16">
+        <v>0.07792903080205517</v>
+      </c>
+      <c r="G16">
+        <v>0.0007041232767631212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.005579028669766863</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.00441846942659391</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002840375782485632</v>
+      </c>
+      <c r="E17">
+        <v>-0.008472723975909887</v>
+      </c>
+      <c r="F17">
+        <v>-0.006958119483396351</v>
+      </c>
+      <c r="G17">
+        <v>-0.01431486152217521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03676296992605647</v>
+        <v>-0.05190222214541201</v>
       </c>
       <c r="C18">
-        <v>0.0490393040523119</v>
+        <v>0.0421582894312082</v>
       </c>
       <c r="D18">
-        <v>0.001454583835170165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.006177769382177435</v>
+      </c>
+      <c r="E18">
+        <v>-0.004892879415953851</v>
+      </c>
+      <c r="F18">
+        <v>-0.05719000712471218</v>
+      </c>
+      <c r="G18">
+        <v>-0.003108014406003795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05703327257911177</v>
+        <v>-0.05686288529912676</v>
       </c>
       <c r="C20">
-        <v>0.09280805925573025</v>
+        <v>0.09199922890337317</v>
       </c>
       <c r="D20">
-        <v>0.08695635932933216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08092659511624395</v>
+      </c>
+      <c r="E20">
+        <v>0.013657871870017</v>
+      </c>
+      <c r="F20">
+        <v>0.07350165024361367</v>
+      </c>
+      <c r="G20">
+        <v>-0.008753490070706759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04438160930403796</v>
+        <v>-0.04565856099653054</v>
       </c>
       <c r="C21">
-        <v>0.0609286074780185</v>
+        <v>0.0583218478504036</v>
       </c>
       <c r="D21">
-        <v>0.01059699009465784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.007829157266919981</v>
+      </c>
+      <c r="E21">
+        <v>0.01728612828257041</v>
+      </c>
+      <c r="F21">
+        <v>0.07013927687576746</v>
+      </c>
+      <c r="G21">
+        <v>0.01843531640168179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04564822306559416</v>
+        <v>-0.04482657453921792</v>
       </c>
       <c r="C22">
-        <v>0.02372329459984576</v>
+        <v>0.02853760448504079</v>
       </c>
       <c r="D22">
-        <v>0.00190185186175819</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.004137527370955705</v>
+      </c>
+      <c r="E22">
+        <v>-0.1532024074761729</v>
+      </c>
+      <c r="F22">
+        <v>-0.01797245327697917</v>
+      </c>
+      <c r="G22">
+        <v>-0.001104237796258768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04565766668263632</v>
+        <v>-0.04483462763744178</v>
       </c>
       <c r="C23">
-        <v>0.02371589648793197</v>
+        <v>0.02853130777867457</v>
       </c>
       <c r="D23">
-        <v>0.001884861110239993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.004120891488422426</v>
+      </c>
+      <c r="E23">
+        <v>-0.153244853377</v>
+      </c>
+      <c r="F23">
+        <v>-0.01796326682945064</v>
+      </c>
+      <c r="G23">
+        <v>-0.001144919284890628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06695737949603156</v>
+        <v>-0.06616507566668703</v>
       </c>
       <c r="C24">
-        <v>0.1344800923754929</v>
+        <v>0.1338169854015505</v>
       </c>
       <c r="D24">
-        <v>0.06898972332147747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06226003569848296</v>
+      </c>
+      <c r="E24">
+        <v>0.009516857903434416</v>
+      </c>
+      <c r="F24">
+        <v>0.07460199931230249</v>
+      </c>
+      <c r="G24">
+        <v>0.004452152290677155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07241569089278876</v>
+        <v>-0.07078709709121665</v>
       </c>
       <c r="C25">
-        <v>0.1181870380872088</v>
+        <v>0.1181028082230678</v>
       </c>
       <c r="D25">
-        <v>0.04143367029864817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03257147539367332</v>
+      </c>
+      <c r="E25">
+        <v>0.0280971193357193</v>
+      </c>
+      <c r="F25">
+        <v>0.09166473172734368</v>
+      </c>
+      <c r="G25">
+        <v>0.005899635898935133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05664825958933866</v>
+        <v>-0.06064637498853275</v>
       </c>
       <c r="C26">
-        <v>0.06849193657458952</v>
+        <v>0.06931183208793068</v>
       </c>
       <c r="D26">
-        <v>0.03459495338426725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02855046658080318</v>
+      </c>
+      <c r="E26">
+        <v>0.0006894646161745</v>
+      </c>
+      <c r="F26">
+        <v>0.08112397182311283</v>
+      </c>
+      <c r="G26">
+        <v>-0.01099440528024218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1701847816887043</v>
+        <v>-0.173112441152418</v>
       </c>
       <c r="C28">
-        <v>-0.2280694789790401</v>
+        <v>-0.228133692102767</v>
       </c>
       <c r="D28">
-        <v>-0.03093451303011727</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.04207068750264537</v>
+      </c>
+      <c r="E28">
+        <v>0.05763694208469063</v>
+      </c>
+      <c r="F28">
+        <v>0.1385754391805944</v>
+      </c>
+      <c r="G28">
+        <v>-0.01728140878985567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02404498176106381</v>
+        <v>-0.02667681819978934</v>
       </c>
       <c r="C29">
-        <v>0.04938703302894583</v>
+        <v>0.04703854933760389</v>
       </c>
       <c r="D29">
-        <v>0.0202539496814463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01953110730963608</v>
+      </c>
+      <c r="E29">
+        <v>-0.01500385343032734</v>
+      </c>
+      <c r="F29">
+        <v>0.07577045721059311</v>
+      </c>
+      <c r="G29">
+        <v>-0.007541931565634509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03969881276454164</v>
+        <v>-0.04137860766701495</v>
       </c>
       <c r="C30">
-        <v>0.07105571881706722</v>
+        <v>0.07744590401008174</v>
       </c>
       <c r="D30">
-        <v>0.1120907826369026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08962568848002871</v>
+      </c>
+      <c r="E30">
+        <v>0.1091143710426338</v>
+      </c>
+      <c r="F30">
+        <v>0.06432026386446665</v>
+      </c>
+      <c r="G30">
+        <v>-0.01984319759954737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0524426470462749</v>
+        <v>-0.0517848778760548</v>
       </c>
       <c r="C31">
-        <v>0.0322599336206189</v>
+        <v>0.03528960300532489</v>
       </c>
       <c r="D31">
-        <v>0.02064331913369786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02519829090478651</v>
+      </c>
+      <c r="E31">
+        <v>-0.02935866393249441</v>
+      </c>
+      <c r="F31">
+        <v>0.02089075115622734</v>
+      </c>
+      <c r="G31">
+        <v>0.02129580800142986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04396121068970531</v>
+        <v>-0.04831496796889072</v>
       </c>
       <c r="C32">
-        <v>0.04809112535580545</v>
+        <v>0.04584877843555308</v>
       </c>
       <c r="D32">
-        <v>0.02598007806458818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02884454202698572</v>
+      </c>
+      <c r="E32">
+        <v>-0.01419214153785786</v>
+      </c>
+      <c r="F32">
+        <v>0.00761401554412965</v>
+      </c>
+      <c r="G32">
+        <v>-0.008715158629598565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07883797198700562</v>
+        <v>-0.08189792851189182</v>
       </c>
       <c r="C33">
-        <v>0.1094139713672182</v>
+        <v>0.1177948110960072</v>
       </c>
       <c r="D33">
-        <v>0.07338594045318707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07188594631469157</v>
+      </c>
+      <c r="E33">
+        <v>0.01073746740532432</v>
+      </c>
+      <c r="F33">
+        <v>0.07502070907812113</v>
+      </c>
+      <c r="G33">
+        <v>-0.003579851174191503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05504811860589978</v>
+        <v>-0.05479510077246388</v>
       </c>
       <c r="C34">
-        <v>0.1189392445529202</v>
+        <v>0.1207192630057682</v>
       </c>
       <c r="D34">
-        <v>0.07908015934117731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0624421620812292</v>
+      </c>
+      <c r="E34">
+        <v>0.0423852023316568</v>
+      </c>
+      <c r="F34">
+        <v>0.08453553920364337</v>
+      </c>
+      <c r="G34">
+        <v>-0.02615883391111975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02692972258495282</v>
+        <v>-0.02956627220076048</v>
       </c>
       <c r="C35">
-        <v>0.01744220163991602</v>
+        <v>0.01954395559949474</v>
       </c>
       <c r="D35">
-        <v>0.0300293994211046</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0272528800900703</v>
+      </c>
+      <c r="E35">
+        <v>-0.01058341532047575</v>
+      </c>
+      <c r="F35">
+        <v>0.03263536420589244</v>
+      </c>
+      <c r="G35">
+        <v>-0.03222362701729611</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02327426855330053</v>
+        <v>-0.02740005438487539</v>
       </c>
       <c r="C36">
-        <v>0.04970381659076668</v>
+        <v>0.048436723140063</v>
       </c>
       <c r="D36">
-        <v>0.07114241167417221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.06203251527413825</v>
+      </c>
+      <c r="E36">
+        <v>0.006359970794024236</v>
+      </c>
+      <c r="F36">
+        <v>0.02528121817378387</v>
+      </c>
+      <c r="G36">
+        <v>-0.08215951217891117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-5.348061976068411e-05</v>
+        <v>-0.003423805926202318</v>
       </c>
       <c r="C37">
-        <v>-0.0001588725413959927</v>
+        <v>0.006937785503595397</v>
       </c>
       <c r="D37">
-        <v>0.000347852038937836</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.001566948400155062</v>
+      </c>
+      <c r="E37">
+        <v>0.0005372480918214976</v>
+      </c>
+      <c r="F37">
+        <v>0.01076907367441372</v>
+      </c>
+      <c r="G37">
+        <v>0.005577397355282367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08424385631549254</v>
+        <v>-0.07837270699280398</v>
       </c>
       <c r="C39">
-        <v>0.1523324588675006</v>
+        <v>0.1479775721463123</v>
       </c>
       <c r="D39">
-        <v>0.04469071266353953</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03868965596747088</v>
+      </c>
+      <c r="E39">
+        <v>-0.007039734198392543</v>
+      </c>
+      <c r="F39">
+        <v>0.1315365648956692</v>
+      </c>
+      <c r="G39">
+        <v>0.03254317532716239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04653102832453377</v>
+        <v>-0.05079451007009222</v>
       </c>
       <c r="C40">
-        <v>0.07030320348786752</v>
+        <v>0.07438660610886311</v>
       </c>
       <c r="D40">
-        <v>0.02583754609553194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01572699210063351</v>
+      </c>
+      <c r="E40">
+        <v>0.002477246101498788</v>
+      </c>
+      <c r="F40">
+        <v>0.04792619449331768</v>
+      </c>
+      <c r="G40">
+        <v>-0.04462708956704656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02657474184717109</v>
+        <v>-0.02822999585799581</v>
       </c>
       <c r="C41">
-        <v>0.02060084513110291</v>
+        <v>0.02192913066535088</v>
       </c>
       <c r="D41">
-        <v>-0.005830389345765676</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004818992543985539</v>
+      </c>
+      <c r="E41">
+        <v>-0.01066173264139073</v>
+      </c>
+      <c r="F41">
+        <v>-0.0114534040355238</v>
+      </c>
+      <c r="G41">
+        <v>-0.01235426091352398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04289338980168363</v>
+        <v>-0.04221089381334313</v>
       </c>
       <c r="C43">
-        <v>0.04027520989870032</v>
+        <v>0.03737944303999923</v>
       </c>
       <c r="D43">
-        <v>0.008886941526636221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.008970065564210114</v>
+      </c>
+      <c r="E43">
+        <v>-0.03147008698430113</v>
+      </c>
+      <c r="F43">
+        <v>0.02613297098516809</v>
+      </c>
+      <c r="G43">
+        <v>-0.002173436799078303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05649162231560176</v>
+        <v>-0.06383989716455796</v>
       </c>
       <c r="C44">
-        <v>0.08272357953253272</v>
+        <v>0.08675251346352605</v>
       </c>
       <c r="D44">
-        <v>0.2783183543340207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.246615666355371</v>
+      </c>
+      <c r="E44">
+        <v>0.1449024753154033</v>
+      </c>
+      <c r="F44">
+        <v>0.1256761659523718</v>
+      </c>
+      <c r="G44">
+        <v>-0.1669810421884794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0002281568967974952</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.572899549368825e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.001252194581887593</v>
+      </c>
+      <c r="E45">
+        <v>0.001400258268385034</v>
+      </c>
+      <c r="F45">
+        <v>0.0009445147143448718</v>
+      </c>
+      <c r="G45">
+        <v>0.005054235413370083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02836368710828456</v>
+        <v>-0.027886763206736</v>
       </c>
       <c r="C46">
-        <v>0.03352713650974634</v>
+        <v>0.03254958635849748</v>
       </c>
       <c r="D46">
-        <v>0.02167610560837359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02446766748169603</v>
+      </c>
+      <c r="E46">
+        <v>-0.03540633821772492</v>
+      </c>
+      <c r="F46">
+        <v>0.07437876229943328</v>
+      </c>
+      <c r="G46">
+        <v>0.02068665914195709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05159444329819766</v>
+        <v>-0.05097244466895753</v>
       </c>
       <c r="C47">
-        <v>0.02298313050890413</v>
+        <v>0.02641918058979695</v>
       </c>
       <c r="D47">
-        <v>-0.00941006507778441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0029971396170262</v>
+      </c>
+      <c r="E47">
+        <v>-0.06454947855458325</v>
+      </c>
+      <c r="F47">
+        <v>-0.004930488731883662</v>
+      </c>
+      <c r="G47">
+        <v>0.0306054658332214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04700619554274596</v>
+        <v>-0.05015469296840392</v>
       </c>
       <c r="C48">
-        <v>0.07001982928081113</v>
+        <v>0.06924132377771648</v>
       </c>
       <c r="D48">
-        <v>0.023438123489129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01915074903859855</v>
+      </c>
+      <c r="E48">
+        <v>0.02814982905497714</v>
+      </c>
+      <c r="F48">
+        <v>0.05265521845519887</v>
+      </c>
+      <c r="G48">
+        <v>0.02126700925342999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1938438960119705</v>
+        <v>-0.1975269436902511</v>
       </c>
       <c r="C49">
-        <v>-0.01408959393498435</v>
+        <v>-0.007799606358707041</v>
       </c>
       <c r="D49">
-        <v>0.02059394631730143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02638283267786281</v>
+      </c>
+      <c r="E49">
+        <v>0.03928836675616738</v>
+      </c>
+      <c r="F49">
+        <v>-0.05896248147866433</v>
+      </c>
+      <c r="G49">
+        <v>0.004321224744357148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0506547592556208</v>
+        <v>-0.05212514855457001</v>
       </c>
       <c r="C50">
-        <v>0.03080552859245859</v>
+        <v>0.03329034353732416</v>
       </c>
       <c r="D50">
-        <v>0.02785101680050081</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03207950732453467</v>
+      </c>
+      <c r="E50">
+        <v>-0.01597817281833237</v>
+      </c>
+      <c r="F50">
+        <v>0.01008624451219066</v>
+      </c>
+      <c r="G50">
+        <v>0.02324436332805055</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1439476730129468</v>
+        <v>-0.1375139108292569</v>
       </c>
       <c r="C52">
-        <v>0.03238409624763448</v>
+        <v>0.03440611283760198</v>
       </c>
       <c r="D52">
-        <v>0.05583309003665619</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.06013282510062695</v>
+      </c>
+      <c r="E52">
+        <v>-0.0142963455534522</v>
+      </c>
+      <c r="F52">
+        <v>-0.07263043356081361</v>
+      </c>
+      <c r="G52">
+        <v>0.04097763050104582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1740085498167248</v>
+        <v>-0.1652274853911088</v>
       </c>
       <c r="C53">
-        <v>-0.002692167524912081</v>
+        <v>0.00210450552244777</v>
       </c>
       <c r="D53">
-        <v>0.09532175629662325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1043831486712739</v>
+      </c>
+      <c r="E53">
+        <v>0.0025443945541893</v>
+      </c>
+      <c r="F53">
+        <v>-0.1180326867237563</v>
+      </c>
+      <c r="G53">
+        <v>0.08139572602546494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01085115197189973</v>
+        <v>-0.01439568278844015</v>
       </c>
       <c r="C54">
-        <v>0.03280583241192369</v>
+        <v>0.03404281167647855</v>
       </c>
       <c r="D54">
-        <v>0.01840972971889093</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02095723251179103</v>
+      </c>
+      <c r="E54">
+        <v>-0.0110150922181096</v>
+      </c>
+      <c r="F54">
+        <v>0.04719525145580483</v>
+      </c>
+      <c r="G54">
+        <v>-0.001263637305347831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1211543833660239</v>
+        <v>-0.1177136817415423</v>
       </c>
       <c r="C55">
-        <v>0.005102693988819608</v>
+        <v>0.01131252157673426</v>
       </c>
       <c r="D55">
-        <v>0.07242342146384867</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.08007926337816175</v>
+      </c>
+      <c r="E55">
+        <v>-0.03088272317336745</v>
+      </c>
+      <c r="F55">
+        <v>-0.0362502237138586</v>
+      </c>
+      <c r="G55">
+        <v>0.07448046003491893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1807838323816906</v>
+        <v>-0.1731627992757228</v>
       </c>
       <c r="C56">
-        <v>-0.009516754176325812</v>
+        <v>-0.00723510871676086</v>
       </c>
       <c r="D56">
-        <v>0.04765130387971424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06257700786834336</v>
+      </c>
+      <c r="E56">
+        <v>-0.03858750834780407</v>
+      </c>
+      <c r="F56">
+        <v>-0.1487530102220526</v>
+      </c>
+      <c r="G56">
+        <v>0.08576935049896584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04432909378808644</v>
+        <v>-0.04475560909246477</v>
       </c>
       <c r="C58">
-        <v>0.09739081083417239</v>
+        <v>0.1057542682443226</v>
       </c>
       <c r="D58">
-        <v>0.008902387060315584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.01677767977659176</v>
+      </c>
+      <c r="E58">
+        <v>-0.0317381304233284</v>
+      </c>
+      <c r="F58">
+        <v>0.04755698979444054</v>
+      </c>
+      <c r="G58">
+        <v>0.01710606117467003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1868915504172129</v>
+        <v>-0.1903776813775656</v>
       </c>
       <c r="C59">
-        <v>-0.1780461837975642</v>
+        <v>-0.1808155214287396</v>
       </c>
       <c r="D59">
-        <v>-0.07618743578557957</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07590316568156255</v>
+      </c>
+      <c r="E59">
+        <v>-0.03596944265572286</v>
+      </c>
+      <c r="F59">
+        <v>0.07198734970267336</v>
+      </c>
+      <c r="G59">
+        <v>0.02473092869654942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2138758943980603</v>
+        <v>-0.2087971750080327</v>
       </c>
       <c r="C60">
-        <v>0.003362276060827627</v>
+        <v>0.009648447080656765</v>
       </c>
       <c r="D60">
-        <v>-0.06951502608638953</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04718546232576627</v>
+      </c>
+      <c r="E60">
+        <v>-0.04765831666868492</v>
+      </c>
+      <c r="F60">
+        <v>-0.189313015658967</v>
+      </c>
+      <c r="G60">
+        <v>0.1012482252844015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06534414721462689</v>
+        <v>-0.06246188661328814</v>
       </c>
       <c r="C61">
-        <v>0.1200452462148381</v>
+        <v>0.1189811998582741</v>
       </c>
       <c r="D61">
-        <v>0.04330504471678288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03928836536493439</v>
+      </c>
+      <c r="E61">
+        <v>-0.01289321526009348</v>
+      </c>
+      <c r="F61">
+        <v>0.08941406907077611</v>
+      </c>
+      <c r="G61">
+        <v>0.01151691088784215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1683977496479244</v>
+        <v>-0.1645192829356477</v>
       </c>
       <c r="C62">
-        <v>-0.009699036775510367</v>
+        <v>-0.006734725697133203</v>
       </c>
       <c r="D62">
-        <v>0.04067785679555917</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0562490093937321</v>
+      </c>
+      <c r="E62">
+        <v>-0.03435856603381413</v>
+      </c>
+      <c r="F62">
+        <v>-0.1199730134182373</v>
+      </c>
+      <c r="G62">
+        <v>0.07550630307086849</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03863262956394886</v>
+        <v>-0.0431959543633738</v>
       </c>
       <c r="C63">
-        <v>0.07211843830797976</v>
+        <v>0.07428892882314241</v>
       </c>
       <c r="D63">
-        <v>0.03690339577556791</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03327205621000758</v>
+      </c>
+      <c r="E63">
+        <v>-0.01460219354185887</v>
+      </c>
+      <c r="F63">
+        <v>0.04924673683516879</v>
+      </c>
+      <c r="G63">
+        <v>-0.03050716908238275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1121169177019673</v>
+        <v>-0.1098897319691636</v>
       </c>
       <c r="C64">
-        <v>0.04672610211045614</v>
+        <v>0.05072936996375589</v>
       </c>
       <c r="D64">
-        <v>0.03579563923823175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03787380350903026</v>
+      </c>
+      <c r="E64">
+        <v>-0.0105509562215276</v>
+      </c>
+      <c r="F64">
+        <v>-0.03531486791333517</v>
+      </c>
+      <c r="G64">
+        <v>0.004464625943452766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1564058540656773</v>
+        <v>-0.1600797444773262</v>
       </c>
       <c r="C65">
-        <v>-0.06185651910807186</v>
+        <v>-0.05216477781937716</v>
       </c>
       <c r="D65">
-        <v>0.04591320640022094</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05071054349486496</v>
+      </c>
+      <c r="E65">
+        <v>0.02706482809173711</v>
+      </c>
+      <c r="F65">
+        <v>-0.01501358270362771</v>
+      </c>
+      <c r="G65">
+        <v>0.02559254805969249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1016701868906343</v>
+        <v>-0.09501642801354172</v>
       </c>
       <c r="C66">
-        <v>0.1308393861330593</v>
+        <v>0.1318332309169923</v>
       </c>
       <c r="D66">
-        <v>0.04697624343049089</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03695635396608742</v>
+      </c>
+      <c r="E66">
+        <v>0.002853817525231719</v>
+      </c>
+      <c r="F66">
+        <v>0.1035198836867306</v>
+      </c>
+      <c r="G66">
+        <v>-0.01084288973694426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05808458814449979</v>
+        <v>-0.04895037786084914</v>
       </c>
       <c r="C67">
-        <v>0.08515342348837278</v>
+        <v>0.07976840571468476</v>
       </c>
       <c r="D67">
-        <v>-0.02981126027808534</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02487994481006547</v>
+      </c>
+      <c r="E67">
+        <v>-0.09649401370812699</v>
+      </c>
+      <c r="F67">
+        <v>-0.03486992867900775</v>
+      </c>
+      <c r="G67">
+        <v>-0.0002362743045424461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.138590193350953</v>
+        <v>-0.1418889514386238</v>
       </c>
       <c r="C68">
-        <v>-0.2454776233164787</v>
+        <v>-0.247299109061813</v>
       </c>
       <c r="D68">
-        <v>-0.06518190763523901</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.07315538102598973</v>
+      </c>
+      <c r="E68">
+        <v>0.09187353408619554</v>
+      </c>
+      <c r="F68">
+        <v>0.12244501832988</v>
+      </c>
+      <c r="G68">
+        <v>0.01649242528506793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03898818995398777</v>
+        <v>-0.03822329116620586</v>
       </c>
       <c r="C69">
-        <v>0.01330258843689669</v>
+        <v>0.01508885850290327</v>
       </c>
       <c r="D69">
-        <v>0.01953118224650607</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02547910241154942</v>
+      </c>
+      <c r="E69">
+        <v>-0.06054676152596455</v>
+      </c>
+      <c r="F69">
+        <v>-0.04185448448423121</v>
+      </c>
+      <c r="G69">
+        <v>-0.02138052883419769</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.0708015310123121</v>
+        <v>-0.07196138949488261</v>
       </c>
       <c r="C70">
-        <v>0.08017216960837381</v>
+        <v>0.07846299883810556</v>
       </c>
       <c r="D70">
-        <v>-0.4895718692542968</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.3674105084026343</v>
+      </c>
+      <c r="E70">
+        <v>-0.3904527562170603</v>
+      </c>
+      <c r="F70">
+        <v>-0.268203284048998</v>
+      </c>
+      <c r="G70">
+        <v>0.4199512776372971</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1616369062130684</v>
+        <v>-0.1661143484679629</v>
       </c>
       <c r="C71">
-        <v>-0.2534654614560986</v>
+        <v>-0.2520939054944488</v>
       </c>
       <c r="D71">
-        <v>-0.07000904854638478</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.08060551915562435</v>
+      </c>
+      <c r="E71">
+        <v>0.09934950316685402</v>
+      </c>
+      <c r="F71">
+        <v>0.1229192409574728</v>
+      </c>
+      <c r="G71">
+        <v>0.01499302097572651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1437545554462498</v>
+        <v>-0.149207448538396</v>
       </c>
       <c r="C72">
-        <v>0.006676120598581445</v>
+        <v>0.005820283592040169</v>
       </c>
       <c r="D72">
-        <v>0.07691750624111053</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07499481782645533</v>
+      </c>
+      <c r="E72">
+        <v>-0.02948317669819397</v>
+      </c>
+      <c r="F72">
+        <v>-0.02603485455764069</v>
+      </c>
+      <c r="G72">
+        <v>-0.006651721230883477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1915804423387751</v>
+        <v>-0.1994333324619042</v>
       </c>
       <c r="C73">
-        <v>0.01921712012035723</v>
+        <v>0.02793456049802476</v>
       </c>
       <c r="D73">
-        <v>0.07215826602748401</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08238539778155043</v>
+      </c>
+      <c r="E73">
+        <v>-0.04145005302538658</v>
+      </c>
+      <c r="F73">
+        <v>-0.1080296937438299</v>
+      </c>
+      <c r="G73">
+        <v>-0.004940200111967869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08684992996603619</v>
+        <v>-0.08600847639111978</v>
       </c>
       <c r="C74">
-        <v>0.002116538659095735</v>
+        <v>0.009162839005469924</v>
       </c>
       <c r="D74">
-        <v>0.07543263205835948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.08295314515604353</v>
+      </c>
+      <c r="E74">
+        <v>-0.001801093463350596</v>
+      </c>
+      <c r="F74">
+        <v>-0.07222096360800166</v>
+      </c>
+      <c r="G74">
+        <v>0.005481100838309693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1240677932597326</v>
+        <v>-0.1162294823684906</v>
       </c>
       <c r="C75">
-        <v>0.01895394369437998</v>
+        <v>0.02187687722240624</v>
       </c>
       <c r="D75">
-        <v>0.0649861606281905</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0699513349912964</v>
+      </c>
+      <c r="E75">
+        <v>-0.04814185462117603</v>
+      </c>
+      <c r="F75">
+        <v>-0.05990955237896869</v>
+      </c>
+      <c r="G75">
+        <v>0.05033367763717163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07351054185117055</v>
+        <v>-0.08716737885877537</v>
       </c>
       <c r="C77">
-        <v>0.1120312539041495</v>
+        <v>0.1128386855358306</v>
       </c>
       <c r="D77">
-        <v>0.06302108271270479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07002407581433354</v>
+      </c>
+      <c r="E77">
+        <v>0.03471534879751213</v>
+      </c>
+      <c r="F77">
+        <v>0.09471888827648677</v>
+      </c>
+      <c r="G77">
+        <v>0.1055481148997092</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08884687903302597</v>
+        <v>-0.09271033885581846</v>
       </c>
       <c r="C78">
-        <v>0.1265413033214792</v>
+        <v>0.126486636362518</v>
       </c>
       <c r="D78">
-        <v>0.07606514790953442</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06091694784144876</v>
+      </c>
+      <c r="E78">
+        <v>0.03804175633358529</v>
+      </c>
+      <c r="F78">
+        <v>0.1165929408773003</v>
+      </c>
+      <c r="G78">
+        <v>0.08284136246257869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1674059079273739</v>
+        <v>-0.1625255774944921</v>
       </c>
       <c r="C79">
-        <v>0.01710138666418811</v>
+        <v>0.01912454038222423</v>
       </c>
       <c r="D79">
-        <v>0.03440926542703315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04274542917657171</v>
+      </c>
+      <c r="E79">
+        <v>-0.03347400240611961</v>
+      </c>
+      <c r="F79">
+        <v>-0.05394893431526818</v>
+      </c>
+      <c r="G79">
+        <v>0.05030277079950193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07541211752305202</v>
+        <v>-0.07319312254922153</v>
       </c>
       <c r="C80">
-        <v>0.07131256500413678</v>
+        <v>0.06636604594580323</v>
       </c>
       <c r="D80">
-        <v>0.03524038430181452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01799135342666502</v>
+      </c>
+      <c r="E80">
+        <v>-0.03227139072558972</v>
+      </c>
+      <c r="F80">
+        <v>0.09417750813396836</v>
+      </c>
+      <c r="G80">
+        <v>-0.1075415179847534</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1124245646330738</v>
+        <v>-0.1055414481206828</v>
       </c>
       <c r="C81">
-        <v>-0.01437516993289978</v>
+        <v>-0.01154543418194071</v>
       </c>
       <c r="D81">
-        <v>0.03474348413491888</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04244501400506261</v>
+      </c>
+      <c r="E81">
+        <v>-0.05992246262373769</v>
+      </c>
+      <c r="F81">
+        <v>-0.0687045082593367</v>
+      </c>
+      <c r="G81">
+        <v>0.01167486116206616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1621205141814211</v>
+        <v>-0.1577660091590986</v>
       </c>
       <c r="C82">
-        <v>-0.01382683558943597</v>
+        <v>-0.009773512468147436</v>
       </c>
       <c r="D82">
-        <v>0.08503382220184671</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09059991502590324</v>
+      </c>
+      <c r="E82">
+        <v>0.01397566157220556</v>
+      </c>
+      <c r="F82">
+        <v>-0.1295146414129406</v>
+      </c>
+      <c r="G82">
+        <v>0.01699953598723113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05441466143114845</v>
+        <v>-0.050210160406342</v>
       </c>
       <c r="C83">
-        <v>0.06266346996831827</v>
+        <v>0.05832859644653171</v>
       </c>
       <c r="D83">
-        <v>-0.006858656252709019</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.009160945549527</v>
+      </c>
+      <c r="E83">
+        <v>-0.008938486848178702</v>
+      </c>
+      <c r="F83">
+        <v>0.003018263848035649</v>
+      </c>
+      <c r="G83">
+        <v>0.0135559598707359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05072957277378791</v>
+        <v>-0.04823878930482236</v>
       </c>
       <c r="C84">
-        <v>0.06956615371121891</v>
+        <v>0.06908877270695193</v>
       </c>
       <c r="D84">
-        <v>-0.002350739526387094</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001762048690786352</v>
+      </c>
+      <c r="E84">
+        <v>-0.03519430081749533</v>
+      </c>
+      <c r="F84">
+        <v>-0.006964256609469065</v>
+      </c>
+      <c r="G84">
+        <v>0.02430391746561209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1401973821506693</v>
+        <v>-0.1343336127551338</v>
       </c>
       <c r="C85">
-        <v>0.004033932026135939</v>
+        <v>0.007972905886565617</v>
       </c>
       <c r="D85">
-        <v>0.09286542843570723</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0941893131605424</v>
+      </c>
+      <c r="E85">
+        <v>-0.0005466383593722134</v>
+      </c>
+      <c r="F85">
+        <v>-0.05025086890327568</v>
+      </c>
+      <c r="G85">
+        <v>0.0382106088367585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08380468642760619</v>
+        <v>-0.08117142479599962</v>
       </c>
       <c r="C86">
-        <v>0.1346691312582668</v>
+        <v>0.1347819954364912</v>
       </c>
       <c r="D86">
-        <v>-0.3553973533696855</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.3757715602204459</v>
+      </c>
+      <c r="E86">
+        <v>-0.5250452377993085</v>
+      </c>
+      <c r="F86">
+        <v>0.5198914295072439</v>
+      </c>
+      <c r="G86">
+        <v>-0.1591580365214452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09072772898246262</v>
+        <v>-0.08742230961038534</v>
       </c>
       <c r="C87">
-        <v>0.09752970317914336</v>
+        <v>0.09586822284129684</v>
       </c>
       <c r="D87">
-        <v>0.04943142658551768</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.02438455805422358</v>
+      </c>
+      <c r="E87">
+        <v>0.1420720407159999</v>
+      </c>
+      <c r="F87">
+        <v>0.0702029805957521</v>
+      </c>
+      <c r="G87">
+        <v>-0.05080572162770351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06131171666308659</v>
+        <v>-0.06041247807337559</v>
       </c>
       <c r="C88">
-        <v>0.0589538438510648</v>
+        <v>0.06013422145516606</v>
       </c>
       <c r="D88">
-        <v>0.01578798113365375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01873813709470842</v>
+      </c>
+      <c r="E88">
+        <v>-0.01338426228015992</v>
+      </c>
+      <c r="F88">
+        <v>-0.02610753941619457</v>
+      </c>
+      <c r="G88">
+        <v>0.01477983487238421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1474438089299181</v>
+        <v>-0.1505111335436969</v>
       </c>
       <c r="C89">
-        <v>-0.1978360861623515</v>
+        <v>-0.2061050340168797</v>
       </c>
       <c r="D89">
-        <v>-0.04062686507336329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05309838120724027</v>
+      </c>
+      <c r="E89">
+        <v>0.08300938470619713</v>
+      </c>
+      <c r="F89">
+        <v>0.09211231689244617</v>
+      </c>
+      <c r="G89">
+        <v>-0.01022855968117586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1762384450486268</v>
+        <v>-0.1833611548244314</v>
       </c>
       <c r="C90">
-        <v>-0.2291644488762314</v>
+        <v>-0.2364029685962882</v>
       </c>
       <c r="D90">
-        <v>-0.085933817883733</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.1036405693140941</v>
+      </c>
+      <c r="E90">
+        <v>0.1237371436719829</v>
+      </c>
+      <c r="F90">
+        <v>0.1376022388406189</v>
+      </c>
+      <c r="G90">
+        <v>-0.000941098959261719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1267278814785152</v>
+        <v>-0.1210236380440864</v>
       </c>
       <c r="C91">
-        <v>-0.02286575349609886</v>
+        <v>-0.0199118419635826</v>
       </c>
       <c r="D91">
-        <v>0.03775107414128274</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.04574940611545913</v>
+      </c>
+      <c r="E91">
+        <v>-0.1056097613162792</v>
+      </c>
+      <c r="F91">
+        <v>-0.0944306653068768</v>
+      </c>
+      <c r="G91">
+        <v>-0.001993076098102786</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1704135852618737</v>
+        <v>-0.1736867140034757</v>
       </c>
       <c r="C92">
-        <v>-0.2628539911536757</v>
+        <v>-0.2751151922992685</v>
       </c>
       <c r="D92">
-        <v>-0.07651786079100026</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.08303237420964164</v>
+      </c>
+      <c r="E92">
+        <v>0.07906935684713225</v>
+      </c>
+      <c r="F92">
+        <v>0.1889151479622254</v>
+      </c>
+      <c r="G92">
+        <v>0.03898858974502759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1761671572691797</v>
+        <v>-0.1843801005191016</v>
       </c>
       <c r="C93">
-        <v>-0.2220491337797361</v>
+        <v>-0.2267755029331137</v>
       </c>
       <c r="D93">
-        <v>-0.04995577598797027</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.05354029034010204</v>
+      </c>
+      <c r="E93">
+        <v>0.05772209988675166</v>
+      </c>
+      <c r="F93">
+        <v>0.09992747114947136</v>
+      </c>
+      <c r="G93">
+        <v>0.05618809670586081</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1188467467561216</v>
+        <v>-0.1131703893975321</v>
       </c>
       <c r="C94">
-        <v>0.03434542421263767</v>
+        <v>0.03472545907864523</v>
       </c>
       <c r="D94">
-        <v>0.05765243446528041</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.06136414452441394</v>
+      </c>
+      <c r="E94">
+        <v>-0.04635363588365742</v>
+      </c>
+      <c r="F94">
+        <v>-0.05825652152665625</v>
+      </c>
+      <c r="G94">
+        <v>0.0442167795796498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.118602328271335</v>
+        <v>-0.1216197153158186</v>
       </c>
       <c r="C95">
-        <v>0.09891617461439225</v>
+        <v>0.1103038279629604</v>
       </c>
       <c r="D95">
-        <v>0.01720845084433237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02642608186938349</v>
+      </c>
+      <c r="E95">
+        <v>-0.03388318172644035</v>
+      </c>
+      <c r="F95">
+        <v>0.07425651922862611</v>
+      </c>
+      <c r="G95">
+        <v>-0.0005603024809563438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1126898633844894</v>
+        <v>-0.1111456467141081</v>
       </c>
       <c r="C96">
-        <v>0.1102208858994454</v>
+        <v>0.1152281225059488</v>
       </c>
       <c r="D96">
-        <v>-0.01777545950170585</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.003325676005584343</v>
+      </c>
+      <c r="E96">
+        <v>-0.02078090661840029</v>
+      </c>
+      <c r="F96">
+        <v>-0.07892945194273547</v>
+      </c>
+      <c r="G96">
+        <v>0.09899778671003548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1914594590652657</v>
+        <v>-0.1955546158928303</v>
       </c>
       <c r="C97">
-        <v>0.001433351627854096</v>
+        <v>-0.003702580775090339</v>
       </c>
       <c r="D97">
-        <v>-0.08969783506840358</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1235432874081835</v>
+      </c>
+      <c r="E97">
+        <v>-0.1500701106246468</v>
+      </c>
+      <c r="F97">
+        <v>-0.3410309427004151</v>
+      </c>
+      <c r="G97">
+        <v>-0.8074300954178877</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2021027134184247</v>
+        <v>-0.2066646510805752</v>
       </c>
       <c r="C98">
-        <v>0.01784551438640319</v>
+        <v>0.02271645560842439</v>
       </c>
       <c r="D98">
-        <v>-0.110057869628882</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.09805413170341643</v>
+      </c>
+      <c r="E98">
+        <v>0.005984033871945974</v>
+      </c>
+      <c r="F98">
+        <v>-0.09453800667008459</v>
+      </c>
+      <c r="G98">
+        <v>0.02407264165904464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05404412998510948</v>
+        <v>-0.05347652173373369</v>
       </c>
       <c r="C99">
-        <v>0.05444091615465552</v>
+        <v>0.0554774460803595</v>
       </c>
       <c r="D99">
-        <v>0.00903251897884722</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.007092901201253108</v>
+      </c>
+      <c r="E99">
+        <v>-0.00224600383919111</v>
+      </c>
+      <c r="F99">
+        <v>0.03212611728674547</v>
+      </c>
+      <c r="G99">
+        <v>-0.01452945529427423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.115464373849949</v>
+        <v>-0.1078304333110539</v>
       </c>
       <c r="C100">
-        <v>0.4014614530398415</v>
+        <v>0.3711734592940499</v>
       </c>
       <c r="D100">
-        <v>-0.5552482071263057</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.6423642994542509</v>
+      </c>
+      <c r="E100">
+        <v>0.5640974934292227</v>
+      </c>
+      <c r="F100">
+        <v>-0.102894766308164</v>
+      </c>
+      <c r="G100">
+        <v>-0.007450485276812144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02398263660210176</v>
+        <v>-0.02662196435879362</v>
       </c>
       <c r="C101">
-        <v>0.04889111188028478</v>
+        <v>0.0465186488644467</v>
       </c>
       <c r="D101">
-        <v>0.01609539355658438</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01659889187366273</v>
+      </c>
+      <c r="E101">
+        <v>-0.01784646252282609</v>
+      </c>
+      <c r="F101">
+        <v>0.07116915529535853</v>
+      </c>
+      <c r="G101">
+        <v>-0.004082002908702786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
